--- a/state_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
+++ b/state_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U259"/>
+  <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
         <v>0.0056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0067131157680841</v>
+        <v>0.0067299013648767</v>
       </c>
       <c r="H5" t="n">
         <v>0.0227589915651739</v>
@@ -894,7 +894,7 @@
         <v>0.0056</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0067131157680841</v>
+        <v>0.0067299013648767</v>
       </c>
       <c r="H6" t="n">
         <v>0.0227589915651739</v>
@@ -975,7 +975,7 @@
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0699668668705624</v>
+        <v>0.0699739522891244</v>
       </c>
       <c r="H7" t="n">
         <v>0.21</v>
@@ -1056,7 +1056,7 @@
         <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0699668668705624</v>
+        <v>0.0699739522891244</v>
       </c>
       <c r="H8" t="n">
         <v>0.21</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0838663540781784</v>
+        <v>0.0839261451844636</v>
       </c>
       <c r="H9" t="n">
-        <v>0.221</v>
+        <v>0.2205</v>
       </c>
       <c r="I9" t="n">
         <v>0.1655</v>
@@ -1144,13 +1144,13 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.06</v>
+        <v>0.0605</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1222</v>
+        <v>0.12235</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1415</v>
+        <v>0.14135</v>
       </c>
       <c r="O9" t="n">
         <v>1849990</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0838663540781784</v>
+        <v>0.0839261451844636</v>
       </c>
       <c r="H10" t="n">
-        <v>0.221</v>
+        <v>0.2205</v>
       </c>
       <c r="I10" t="n">
         <v>0.1655</v>
@@ -1221,13 +1221,13 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.06</v>
+        <v>0.0605</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1222</v>
+        <v>0.12235</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1415</v>
+        <v>0.14135</v>
       </c>
       <c r="O10" t="n">
         <v>1849990</v>
@@ -1534,7 +1534,7 @@
         <v>0.00545</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0055262666792527</v>
+        <v>0.005546867745624</v>
       </c>
       <c r="H14" t="n">
         <v>0.0227589915651739</v>
@@ -1545,7 +1545,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.0032</v>
+        <v>0.00324</v>
       </c>
       <c r="M14" t="n">
         <v>0.01084</v>
@@ -1615,7 +1615,7 @@
         <v>0.00545</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0055262666792527</v>
+        <v>0.005546867745624</v>
       </c>
       <c r="H15" t="n">
         <v>0.0227589915651739</v>
@@ -1626,7 +1626,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.0032</v>
+        <v>0.00324</v>
       </c>
       <c r="M15" t="n">
         <v>0.01084</v>
@@ -1696,7 +1696,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0747502502548697</v>
+        <v>0.0747591070280722</v>
       </c>
       <c r="H16" t="n">
         <v>0.21</v>
@@ -1777,7 +1777,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0747502502548697</v>
+        <v>0.0747591070280722</v>
       </c>
       <c r="H17" t="n">
         <v>0.21</v>
@@ -1851,16 +1851,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0866871092643897</v>
+        <v>0.0867618481472462</v>
       </c>
       <c r="H18" t="n">
-        <v>0.221</v>
+        <v>0.2205</v>
       </c>
       <c r="I18" t="n">
-        <v>0.17</v>
+        <v>0.1705</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1868,10 +1868,10 @@
         <v>0.058</v>
       </c>
       <c r="M18" t="n">
-        <v>0.12704</v>
+        <v>0.1272</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1559</v>
+        <v>0.15557</v>
       </c>
       <c r="O18" t="n">
         <v>1849990</v>
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0866871092643897</v>
+        <v>0.0867618481472462</v>
       </c>
       <c r="H19" t="n">
-        <v>0.221</v>
+        <v>0.2205</v>
       </c>
       <c r="I19" t="n">
-        <v>0.17</v>
+        <v>0.1705</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1945,10 +1945,10 @@
         <v>0.058</v>
       </c>
       <c r="M19" t="n">
-        <v>0.12704</v>
+        <v>0.1272</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1559</v>
+        <v>0.15557</v>
       </c>
       <c r="O19" t="n">
         <v>1849990</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00077</v>
+        <v>0.00084</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0034040450743356</v>
+        <v>0.0034308838355387</v>
       </c>
       <c r="H23" t="n">
         <v>0.0165725124049009</v>
@@ -2266,7 +2266,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00077</v>
+        <v>0.00084</v>
       </c>
       <c r="M23" t="n">
         <v>0.0061</v>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.00077</v>
+        <v>0.00084</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0034040450743356</v>
+        <v>0.0034308838355387</v>
       </c>
       <c r="H24" t="n">
         <v>0.0165725124049009</v>
@@ -2347,7 +2347,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00077</v>
+        <v>0.00084</v>
       </c>
       <c r="M24" t="n">
         <v>0.0061</v>
@@ -2417,7 +2417,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0763336670064929</v>
+        <v>0.0763454760374296</v>
       </c>
       <c r="H25" t="n">
         <v>0.21</v>
@@ -2498,7 +2498,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0763336670064929</v>
+        <v>0.0763454760374296</v>
       </c>
       <c r="H26" t="n">
         <v>0.21</v>
@@ -2572,27 +2572,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08519392346363069</v>
+        <v>0.08527968641855049</v>
       </c>
       <c r="H27" t="n">
-        <v>0.221</v>
+        <v>0.2205</v>
       </c>
       <c r="I27" t="n">
-        <v>0.17</v>
+        <v>0.1705</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.0385</v>
+        <v>0.038</v>
       </c>
       <c r="M27" t="n">
-        <v>0.131</v>
+        <v>0.1305</v>
       </c>
       <c r="N27" t="n">
-        <v>0.16088</v>
+        <v>0.16119</v>
       </c>
       <c r="O27" t="n">
         <v>1849990</v>
@@ -2649,27 +2649,27 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08519392346363069</v>
+        <v>0.08527968641855049</v>
       </c>
       <c r="H28" t="n">
-        <v>0.221</v>
+        <v>0.2205</v>
       </c>
       <c r="I28" t="n">
-        <v>0.17</v>
+        <v>0.1705</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.0385</v>
+        <v>0.038</v>
       </c>
       <c r="M28" t="n">
-        <v>0.131</v>
+        <v>0.1305</v>
       </c>
       <c r="N28" t="n">
-        <v>0.16088</v>
+        <v>0.16119</v>
       </c>
       <c r="O28" t="n">
         <v>1849990</v>
@@ -2807,27 +2807,27 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.01330147481565</v>
+        <v>5.46628673324276</v>
       </c>
       <c r="H30" t="n">
         <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>11.8</v>
+        <v>12.2588</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>6.67677</v>
       </c>
       <c r="M30" t="n">
-        <v>9.028790000000001</v>
+        <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>11.945</v>
       </c>
       <c r="O30" t="n">
         <v>1849990</v>
@@ -2891,7 +2891,7 @@
         <v>0.008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.008016058098130999</v>
+        <v>0.008019183749246799</v>
       </c>
       <c r="H31" t="n">
         <v>0.015</v>
@@ -2972,7 +2972,7 @@
         <v>0.008</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008016058098130999</v>
+        <v>0.008019183749246799</v>
       </c>
       <c r="H32" t="n">
         <v>0.015</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0055926590490269</v>
+        <v>0.0056347157766698</v>
       </c>
       <c r="H34" t="n">
         <v>0.0641480386772653</v>
@@ -3141,7 +3141,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.00231</v>
+        <v>0.00234</v>
       </c>
       <c r="M34" t="n">
         <v>0.00606</v>
@@ -3208,10 +3208,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0055926590490269</v>
+        <v>0.0056347157766698</v>
       </c>
       <c r="H35" t="n">
         <v>0.0641480386772653</v>
@@ -3222,7 +3222,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.00231</v>
+        <v>0.00234</v>
       </c>
       <c r="M35" t="n">
         <v>0.00606</v>
@@ -3285,16 +3285,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07911428571428571</v>
+        <v>0.0791257142857143</v>
       </c>
       <c r="H36" t="n">
         <v>0.204</v>
       </c>
       <c r="I36" t="n">
-        <v>0.17725</v>
+        <v>0.17762</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3302,10 +3302,10 @@
         <v>0.0505</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1381</v>
+        <v>0.13782</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1711</v>
+        <v>0.17125</v>
       </c>
       <c r="O36" t="n">
         <v>1849990</v>
@@ -3362,16 +3362,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07911428571428571</v>
+        <v>0.0791257142857143</v>
       </c>
       <c r="H37" t="n">
         <v>0.204</v>
       </c>
       <c r="I37" t="n">
-        <v>0.17725</v>
+        <v>0.17762</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3379,10 +3379,10 @@
         <v>0.0505</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1381</v>
+        <v>0.13782</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1711</v>
+        <v>0.17125</v>
       </c>
       <c r="O37" t="n">
         <v>1849990</v>
@@ -3442,7 +3442,7 @@
         <v>0.015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0311648395662307</v>
+        <v>0.0311590894875501</v>
       </c>
       <c r="H38" t="n">
         <v>0.432</v>
@@ -3519,7 +3519,7 @@
         <v>0.015</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0311648395662307</v>
+        <v>0.0311590894875501</v>
       </c>
       <c r="H39" t="n">
         <v>0.432</v>
@@ -3597,27 +3597,27 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.7</v>
+        <v>4.89093</v>
       </c>
       <c r="G40" t="n">
-        <v>5.10022961048296</v>
+        <v>5.22304565125591</v>
       </c>
       <c r="H40" t="n">
         <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>12.2367</v>
+        <v>12.11502</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="M40" t="n">
         <v>9</v>
       </c>
       <c r="N40" t="n">
-        <v>10.28</v>
+        <v>11.21168</v>
       </c>
       <c r="O40" t="n">
         <v>1849990</v>
@@ -3681,7 +3681,7 @@
         <v>0.008</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0074190842858004</v>
+        <v>0.0074236816965612</v>
       </c>
       <c r="H41" t="n">
         <v>0.015</v>
@@ -3762,7 +3762,7 @@
         <v>0.008</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0074190842858004</v>
+        <v>0.0074236816965612</v>
       </c>
       <c r="H42" t="n">
         <v>0.015</v>
@@ -3917,10 +3917,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00159</v>
+        <v>0.00169</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008392414343044399</v>
+        <v>0.0084299943381919</v>
       </c>
       <c r="H44" t="n">
         <v>0.110116426191156</v>
@@ -3931,7 +3931,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00271</v>
+        <v>0.00278</v>
       </c>
       <c r="M44" t="n">
         <v>0.009849999999999999</v>
@@ -3998,10 +3998,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.00159</v>
+        <v>0.00169</v>
       </c>
       <c r="G45" t="n">
-        <v>0.008392414343044399</v>
+        <v>0.0084299943381919</v>
       </c>
       <c r="H45" t="n">
         <v>0.110116426191156</v>
@@ -4012,7 +4012,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.00271</v>
+        <v>0.00278</v>
       </c>
       <c r="M45" t="n">
         <v>0.009849999999999999</v>
@@ -4082,7 +4082,7 @@
         <v>0.0535</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0617685764025593</v>
+        <v>0.0618135691166313</v>
       </c>
       <c r="H46" t="n">
         <v>0.168</v>
@@ -4163,7 +4163,7 @@
         <v>0.0535</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0617685764025593</v>
+        <v>0.0618135691166313</v>
       </c>
       <c r="H47" t="n">
         <v>0.168</v>
@@ -4237,27 +4237,27 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.064</v>
+        <v>0.0635</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0826595744680851</v>
+        <v>0.0826702127659574</v>
       </c>
       <c r="H48" t="n">
         <v>0.244</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1819</v>
+        <v>0.18232</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.051</v>
+        <v>0.05075</v>
       </c>
       <c r="M48" t="n">
-        <v>0.13802</v>
+        <v>0.13776</v>
       </c>
       <c r="N48" t="n">
-        <v>0.17162</v>
+        <v>0.17175</v>
       </c>
       <c r="O48" t="n">
         <v>1849990</v>
@@ -4314,27 +4314,27 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.064</v>
+        <v>0.0635</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0826595744680851</v>
+        <v>0.0826702127659574</v>
       </c>
       <c r="H49" t="n">
         <v>0.244</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1819</v>
+        <v>0.18232</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.051</v>
+        <v>0.05075</v>
       </c>
       <c r="M49" t="n">
-        <v>0.13802</v>
+        <v>0.13776</v>
       </c>
       <c r="N49" t="n">
-        <v>0.17162</v>
+        <v>0.17175</v>
       </c>
       <c r="O49" t="n">
         <v>1849990</v>
@@ -4394,7 +4394,7 @@
         <v>0.014</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0283809729809685</v>
+        <v>0.0283698312129302</v>
       </c>
       <c r="H50" t="n">
         <v>0.432</v>
@@ -4471,7 +4471,7 @@
         <v>0.014</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0283809729809685</v>
+        <v>0.0283698312129302</v>
       </c>
       <c r="H51" t="n">
         <v>0.432</v>
@@ -4630,27 +4630,27 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.8</v>
+        <v>4.88185</v>
       </c>
       <c r="G53" t="n">
-        <v>5.00584233283555</v>
+        <v>5.10316825193864</v>
       </c>
       <c r="H53" t="n">
         <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>11.7</v>
+        <v>11.8625</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>5.55</v>
+        <v>5.7</v>
       </c>
       <c r="M53" t="n">
-        <v>7.88446</v>
+        <v>8.01835</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>10.28167</v>
       </c>
       <c r="O53" t="n">
         <v>1849990</v>
@@ -4714,7 +4714,7 @@
         <v>0.008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.007299948498858</v>
+        <v>0.0073036108430233</v>
       </c>
       <c r="H54" t="n">
         <v>0.015</v>
@@ -4795,7 +4795,7 @@
         <v>0.008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.007299948498858</v>
+        <v>0.0073036108430233</v>
       </c>
       <c r="H55" t="n">
         <v>0.015</v>
@@ -4876,7 +4876,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>30.5328578965714</v>
+        <v>30.5349754374463</v>
       </c>
       <c r="H56" t="n">
         <v>436</v>
@@ -4961,7 +4961,7 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>30.5328578965714</v>
+        <v>30.5349754374463</v>
       </c>
       <c r="H57" t="n">
         <v>436</v>
@@ -5046,7 +5046,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>30.5328578965714</v>
+        <v>30.5349754374463</v>
       </c>
       <c r="H58" t="n">
         <v>436</v>
@@ -5131,7 +5131,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>30.5328578965714</v>
+        <v>30.5349754374463</v>
       </c>
       <c r="H59" t="n">
         <v>436</v>
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00118</v>
+        <v>0.00126</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0069291208171091</v>
+        <v>0.0069598709063788</v>
       </c>
       <c r="H61" t="n">
         <v>0.110116426191156</v>
@@ -5304,7 +5304,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00189</v>
+        <v>0.00191</v>
       </c>
       <c r="M61" t="n">
         <v>0.00721</v>
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.00118</v>
+        <v>0.00126</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0069291208171091</v>
+        <v>0.0069598709063788</v>
       </c>
       <c r="H62" t="n">
         <v>0.110116426191156</v>
@@ -5385,7 +5385,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00189</v>
+        <v>0.00191</v>
       </c>
       <c r="M62" t="n">
         <v>0.00721</v>
@@ -5455,7 +5455,7 @@
         <v>0.05</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0598801180659451</v>
+        <v>0.0599143125286398</v>
       </c>
       <c r="H63" t="n">
         <v>0.168</v>
@@ -5536,7 +5536,7 @@
         <v>0.05</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0598801180659451</v>
+        <v>0.0599143125286398</v>
       </c>
       <c r="H64" t="n">
         <v>0.168</v>
@@ -5610,27 +5610,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.06</v>
+        <v>0.0603</v>
       </c>
       <c r="G65" t="n">
-        <v>0.078135593220339</v>
+        <v>0.07817966101694911</v>
       </c>
       <c r="H65" t="n">
         <v>0.244</v>
       </c>
       <c r="I65" t="n">
-        <v>0.17665</v>
+        <v>0.17692</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.046</v>
+        <v>0.04625</v>
       </c>
       <c r="M65" t="n">
         <v>0.13064</v>
       </c>
       <c r="N65" t="n">
-        <v>0.17214</v>
+        <v>0.17225</v>
       </c>
       <c r="O65" t="n">
         <v>1849990</v>
@@ -5687,27 +5687,27 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.06</v>
+        <v>0.0603</v>
       </c>
       <c r="G66" t="n">
-        <v>0.078135593220339</v>
+        <v>0.07817966101694911</v>
       </c>
       <c r="H66" t="n">
         <v>0.244</v>
       </c>
       <c r="I66" t="n">
-        <v>0.17665</v>
+        <v>0.17692</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.046</v>
+        <v>0.04625</v>
       </c>
       <c r="M66" t="n">
         <v>0.13064</v>
       </c>
       <c r="N66" t="n">
-        <v>0.17214</v>
+        <v>0.17225</v>
       </c>
       <c r="O66" t="n">
         <v>1849990</v>
@@ -5767,7 +5767,7 @@
         <v>0.12</v>
       </c>
       <c r="G67" t="n">
-        <v>0.136775699600203</v>
+        <v>0.136806862745511</v>
       </c>
       <c r="H67" t="n">
         <v>0.4</v>
@@ -5844,7 +5844,7 @@
         <v>0.12</v>
       </c>
       <c r="G68" t="n">
-        <v>0.136775699600203</v>
+        <v>0.136806862745511</v>
       </c>
       <c r="H68" t="n">
         <v>0.4</v>
@@ -5921,7 +5921,7 @@
         <v>0.012</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0242281582330356</v>
+        <v>0.0242173508271631</v>
       </c>
       <c r="H69" t="n">
         <v>0.432</v>
@@ -5998,7 +5998,7 @@
         <v>0.012</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0242281582330356</v>
+        <v>0.0242173508271631</v>
       </c>
       <c r="H70" t="n">
         <v>0.432</v>
@@ -6234,27 +6234,27 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.875</v>
+        <v>4.89093</v>
       </c>
       <c r="G73" t="n">
-        <v>5.11126757363623</v>
+        <v>5.2102398304632</v>
       </c>
       <c r="H73" t="n">
         <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>11.8</v>
+        <v>11.90833</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>5.75</v>
+        <v>5.9</v>
       </c>
       <c r="M73" t="n">
-        <v>7.92297</v>
+        <v>8.024710000000001</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>10.36834</v>
       </c>
       <c r="O73" t="n">
         <v>1849990</v>
@@ -6318,7 +6318,7 @@
         <v>0.007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0071217858229044</v>
+        <v>0.0071249922597557</v>
       </c>
       <c r="H74" t="n">
         <v>0.018</v>
@@ -6399,7 +6399,7 @@
         <v>0.007</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0071217858229044</v>
+        <v>0.0071249922597557</v>
       </c>
       <c r="H75" t="n">
         <v>0.018</v>
@@ -6480,7 +6480,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>80.8718409474189</v>
+        <v>80.8739584882937</v>
       </c>
       <c r="H76" t="n">
         <v>1844</v>
@@ -6565,7 +6565,7 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>80.8718409474189</v>
+        <v>80.8739584882937</v>
       </c>
       <c r="H77" t="n">
         <v>1844</v>
@@ -6650,7 +6650,7 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>80.8718409474189</v>
+        <v>80.8739584882937</v>
       </c>
       <c r="H78" t="n">
         <v>1844</v>
@@ -6735,7 +6735,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>80.8718409474189</v>
+        <v>80.8739584882937</v>
       </c>
       <c r="H79" t="n">
         <v>1844</v>
@@ -6894,10 +6894,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.00165</v>
+        <v>0.00171</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0075723903597868</v>
+        <v>0.0075971354296317</v>
       </c>
       <c r="H81" t="n">
         <v>0.110116426191156</v>
@@ -6908,7 +6908,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.0021</v>
+        <v>0.00216</v>
       </c>
       <c r="M81" t="n">
         <v>0.00974</v>
@@ -6975,10 +6975,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.00165</v>
+        <v>0.00171</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0075723903597868</v>
+        <v>0.0075971354296317</v>
       </c>
       <c r="H82" t="n">
         <v>0.110116426191156</v>
@@ -6989,7 +6989,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.0021</v>
+        <v>0.00216</v>
       </c>
       <c r="M82" t="n">
         <v>0.00974</v>
@@ -7059,7 +7059,7 @@
         <v>0.047</v>
       </c>
       <c r="G83" t="n">
-        <v>0.070886254189425</v>
+        <v>0.07090913349555721</v>
       </c>
       <c r="H83" t="n">
         <v>0.7040999999999999</v>
@@ -7140,7 +7140,7 @@
         <v>0.047</v>
       </c>
       <c r="G84" t="n">
-        <v>0.070886254189425</v>
+        <v>0.07090913349555721</v>
       </c>
       <c r="H84" t="n">
         <v>0.7040999999999999</v>
@@ -7291,24 +7291,24 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.06</v>
+        <v>0.0603</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08484745762711859</v>
+        <v>0.0848881355932203</v>
       </c>
       <c r="H86" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1947</v>
+        <v>0.19469</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.025</v>
+        <v>0.0251</v>
       </c>
       <c r="M86" t="n">
-        <v>0.12447</v>
+        <v>0.12474</v>
       </c>
       <c r="N86" t="n">
         <v>0.175</v>
@@ -7368,24 +7368,24 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06</v>
+        <v>0.0603</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08484745762711859</v>
+        <v>0.0848881355932203</v>
       </c>
       <c r="H87" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1947</v>
+        <v>0.19469</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.025</v>
+        <v>0.0251</v>
       </c>
       <c r="M87" t="n">
-        <v>0.12447</v>
+        <v>0.12474</v>
       </c>
       <c r="N87" t="n">
         <v>0.175</v>
@@ -7448,7 +7448,7 @@
         <v>0.12</v>
       </c>
       <c r="G88" t="n">
-        <v>0.176150459254692</v>
+        <v>0.176165937349599</v>
       </c>
       <c r="H88" t="n">
         <v>1.33</v>
@@ -7525,7 +7525,7 @@
         <v>0.12</v>
       </c>
       <c r="G89" t="n">
-        <v>0.176150459254692</v>
+        <v>0.176165937349599</v>
       </c>
       <c r="H89" t="n">
         <v>1.33</v>
@@ -7602,7 +7602,7 @@
         <v>0.012</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0386998369106702</v>
+        <v>0.038690953592764</v>
       </c>
       <c r="H90" t="n">
         <v>0.44</v>
@@ -7679,7 +7679,7 @@
         <v>0.012</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0386998369106702</v>
+        <v>0.038690953592764</v>
       </c>
       <c r="H91" t="n">
         <v>0.44</v>
@@ -7915,27 +7915,27 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.875</v>
+        <v>4.89093</v>
       </c>
       <c r="G94" t="n">
-        <v>4.65307247831637</v>
+        <v>4.7483790960016</v>
       </c>
       <c r="H94" t="n">
-        <v>12.5917427275345</v>
+        <v>12.2875505399208</v>
       </c>
       <c r="I94" t="n">
-        <v>9.343819999999999</v>
+        <v>9.76</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M94" t="n">
-        <v>6.296</v>
+        <v>6.55657</v>
       </c>
       <c r="N94" t="n">
-        <v>7.95823</v>
+        <v>8.1747</v>
       </c>
       <c r="O94" t="n">
         <v>1849990</v>
@@ -7999,7 +7999,7 @@
         <v>0.0065</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0065150800532299</v>
+        <v>0.0065190767786959</v>
       </c>
       <c r="H95" t="n">
         <v>0.018</v>
@@ -8080,7 +8080,7 @@
         <v>0.0065</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0065150800532299</v>
+        <v>0.0065190767786959</v>
       </c>
       <c r="H96" t="n">
         <v>0.018</v>
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.00132</v>
+        <v>0.0014</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0077019164852343</v>
+        <v>0.0077221556190278</v>
       </c>
       <c r="H102" t="n">
         <v>0.110116426191156</v>
@@ -8589,7 +8589,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00108</v>
+        <v>0.00115</v>
       </c>
       <c r="M102" t="n">
         <v>0.009849999999999999</v>
@@ -8656,10 +8656,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.00132</v>
+        <v>0.0014</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0077019164852343</v>
+        <v>0.0077221556190278</v>
       </c>
       <c r="H103" t="n">
         <v>0.110116426191156</v>
@@ -8670,7 +8670,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.00108</v>
+        <v>0.00115</v>
       </c>
       <c r="M103" t="n">
         <v>0.009849999999999999</v>
@@ -8740,7 +8740,7 @@
         <v>0.0506</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07219162423466829</v>
+        <v>0.0722017474036955</v>
       </c>
       <c r="H104" t="n">
         <v>0.7040999999999999</v>
@@ -8821,7 +8821,7 @@
         <v>0.0506</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07219162423466829</v>
+        <v>0.0722017474036955</v>
       </c>
       <c r="H105" t="n">
         <v>0.7040999999999999</v>
@@ -8972,13 +8972,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.0605</v>
+        <v>0.06065</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0858333333333333</v>
+        <v>0.0858433333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I107" t="n">
         <v>0.193</v>
@@ -8989,7 +8989,7 @@
         <v>0.024</v>
       </c>
       <c r="M107" t="n">
-        <v>0.14</v>
+        <v>0.13985</v>
       </c>
       <c r="N107" t="n">
         <v>0.175</v>
@@ -9049,13 +9049,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.0605</v>
+        <v>0.06065</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0858333333333333</v>
+        <v>0.0858433333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I108" t="n">
         <v>0.193</v>
@@ -9066,7 +9066,7 @@
         <v>0.024</v>
       </c>
       <c r="M108" t="n">
-        <v>0.14</v>
+        <v>0.13985</v>
       </c>
       <c r="N108" t="n">
         <v>0.175</v>
@@ -9283,7 +9283,7 @@
         <v>0.012</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0371115325155172</v>
+        <v>0.0371042594456395</v>
       </c>
       <c r="H111" t="n">
         <v>0.44</v>
@@ -9360,7 +9360,7 @@
         <v>0.012</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0371115325155172</v>
+        <v>0.0371042594456395</v>
       </c>
       <c r="H112" t="n">
         <v>0.44</v>
@@ -9599,13 +9599,13 @@
         <v>4.85</v>
       </c>
       <c r="G115" t="n">
-        <v>4.71345939336333</v>
+        <v>4.54347810400579</v>
       </c>
       <c r="H115" t="n">
-        <v>12.5917427275345</v>
+        <v>10.2</v>
       </c>
       <c r="I115" t="n">
-        <v>8.475</v>
+        <v>7.325</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -9616,7 +9616,7 @@
         <v>6.2</v>
       </c>
       <c r="N115" t="n">
-        <v>6.87</v>
+        <v>6.53</v>
       </c>
       <c r="O115" t="n">
         <v>1849990</v>
@@ -9680,7 +9680,7 @@
         <v>0.006</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0066396976744465</v>
+        <v>0.0066438887537135</v>
       </c>
       <c r="H116" t="n">
         <v>0.018</v>
@@ -9761,7 +9761,7 @@
         <v>0.006</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0066396976744465</v>
+        <v>0.0066438887537135</v>
       </c>
       <c r="H117" t="n">
         <v>0.018</v>
@@ -10256,10 +10256,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00148</v>
+        <v>0.00157</v>
       </c>
       <c r="G123" t="n">
-        <v>0.005129903248835</v>
+        <v>0.0051660371026304</v>
       </c>
       <c r="H123" t="n">
         <v>0.110116426191156</v>
@@ -10270,7 +10270,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00102</v>
+        <v>0.00108</v>
       </c>
       <c r="M123" t="n">
         <v>0.00525</v>
@@ -10337,10 +10337,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00148</v>
+        <v>0.00157</v>
       </c>
       <c r="G124" t="n">
-        <v>0.005129903248835</v>
+        <v>0.0051660371026304</v>
       </c>
       <c r="H124" t="n">
         <v>0.110116426191156</v>
@@ -10351,7 +10351,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00102</v>
+        <v>0.00108</v>
       </c>
       <c r="M124" t="n">
         <v>0.00525</v>
@@ -10421,7 +10421,7 @@
         <v>0.0433</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0707582909013349</v>
+        <v>0.0707684140703622</v>
       </c>
       <c r="H125" t="n">
         <v>0.7040999999999999</v>
@@ -10502,7 +10502,7 @@
         <v>0.0433</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0707582909013349</v>
+        <v>0.0707684140703622</v>
       </c>
       <c r="H126" t="n">
         <v>0.7040999999999999</v>
@@ -10653,27 +10653,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.0575</v>
+        <v>0.05745</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08216666666666669</v>
+        <v>0.0821766666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2075</v>
+        <v>0.20745</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.018</v>
+        <v>0.01815</v>
       </c>
       <c r="M128" t="n">
         <v>0.138</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1757</v>
+        <v>0.17577</v>
       </c>
       <c r="O128" t="n">
         <v>1849990</v>
@@ -10730,27 +10730,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.0575</v>
+        <v>0.05745</v>
       </c>
       <c r="G129" t="n">
-        <v>0.08216666666666669</v>
+        <v>0.0821766666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2075</v>
+        <v>0.20745</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.018</v>
+        <v>0.01815</v>
       </c>
       <c r="M129" t="n">
         <v>0.138</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1757</v>
+        <v>0.17577</v>
       </c>
       <c r="O129" t="n">
         <v>1849990</v>
@@ -10964,7 +10964,7 @@
         <v>0.01</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0274781991821838</v>
+        <v>0.0274709261123062</v>
       </c>
       <c r="H132" t="n">
         <v>0.44</v>
@@ -11041,7 +11041,7 @@
         <v>0.01</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0274781991821838</v>
+        <v>0.0274709261123062</v>
       </c>
       <c r="H133" t="n">
         <v>0.44</v>
@@ -11280,7 +11280,7 @@
         <v>4.8</v>
       </c>
       <c r="G136" t="n">
-        <v>4.28256614366315</v>
+        <v>4.28236059353226</v>
       </c>
       <c r="H136" t="n">
         <v>10.2</v>
@@ -11361,7 +11361,7 @@
         <v>0.007</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0071667790185984</v>
+        <v>0.0071699084233893</v>
       </c>
       <c r="H137" t="n">
         <v>0.018</v>
@@ -11442,7 +11442,7 @@
         <v>0.007</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0071667790185984</v>
+        <v>0.0071699084233893</v>
       </c>
       <c r="H138" t="n">
         <v>0.018</v>
@@ -11523,7 +11523,7 @@
         <v>20.5</v>
       </c>
       <c r="G139" t="n">
-        <v>79.6743611301232</v>
+        <v>79.6751645146151</v>
       </c>
       <c r="H139" t="n">
         <v>1844</v>
@@ -11608,7 +11608,7 @@
         <v>20.5</v>
       </c>
       <c r="G140" t="n">
-        <v>79.6743611301232</v>
+        <v>79.6751645146151</v>
       </c>
       <c r="H140" t="n">
         <v>1844</v>
@@ -11693,7 +11693,7 @@
         <v>20.5</v>
       </c>
       <c r="G141" t="n">
-        <v>79.6743611301232</v>
+        <v>79.6751645146151</v>
       </c>
       <c r="H141" t="n">
         <v>1844</v>
@@ -11778,7 +11778,7 @@
         <v>20.5</v>
       </c>
       <c r="G142" t="n">
-        <v>79.6743611301232</v>
+        <v>79.6751645146151</v>
       </c>
       <c r="H142" t="n">
         <v>1844</v>
@@ -11937,24 +11937,24 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00151</v>
+        <v>0.0016</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0024235119156705</v>
+        <v>0.0024800312279113</v>
       </c>
       <c r="H144" t="n">
         <v>0.02</v>
       </c>
       <c r="I144" t="n">
-        <v>0.00787</v>
+        <v>0.00814</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00113</v>
+        <v>0.0012</v>
       </c>
       <c r="M144" t="n">
-        <v>0.00311</v>
+        <v>0.0032</v>
       </c>
       <c r="N144" t="n">
         <v>0.00507</v>
@@ -12018,24 +12018,24 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00151</v>
+        <v>0.0016</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0024235119156705</v>
+        <v>0.0024800312279113</v>
       </c>
       <c r="H145" t="n">
         <v>0.02</v>
       </c>
       <c r="I145" t="n">
-        <v>0.00787</v>
+        <v>0.00814</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00113</v>
+        <v>0.0012</v>
       </c>
       <c r="M145" t="n">
-        <v>0.00311</v>
+        <v>0.0032</v>
       </c>
       <c r="N145" t="n">
         <v>0.00507</v>
@@ -12102,7 +12102,7 @@
         <v>0.0433</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0749445249385635</v>
+        <v>0.07496704273798981</v>
       </c>
       <c r="H146" t="n">
         <v>0.7040999999999999</v>
@@ -12113,7 +12113,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00773</v>
+        <v>0.00792</v>
       </c>
       <c r="M146" t="n">
         <v>0.13362</v>
@@ -12183,7 +12183,7 @@
         <v>0.0433</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0749445249385635</v>
+        <v>0.07496704273798981</v>
       </c>
       <c r="H147" t="n">
         <v>0.7040999999999999</v>
@@ -12194,7 +12194,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00773</v>
+        <v>0.00792</v>
       </c>
       <c r="M147" t="n">
         <v>0.13362</v>
@@ -12334,13 +12334,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.0545</v>
+        <v>0.0542</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0823612656683643</v>
+        <v>0.08237746770186311</v>
       </c>
       <c r="H149" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I149" t="n">
         <v>0.195</v>
@@ -12351,10 +12351,10 @@
         <v>0.015</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1456</v>
+        <v>0.14545</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1823</v>
+        <v>0.18233</v>
       </c>
       <c r="O149" t="n">
         <v>1849990</v>
@@ -12411,13 +12411,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.0545</v>
+        <v>0.0542</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0823612656683643</v>
+        <v>0.08237746770186311</v>
       </c>
       <c r="H150" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I150" t="n">
         <v>0.195</v>
@@ -12428,10 +12428,10 @@
         <v>0.015</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1456</v>
+        <v>0.14545</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1823</v>
+        <v>0.18233</v>
       </c>
       <c r="O150" t="n">
         <v>1849990</v>
@@ -12645,7 +12645,7 @@
         <v>0.01</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0257925934273931</v>
+        <v>0.0257906938632484</v>
       </c>
       <c r="H153" t="n">
         <v>0.44</v>
@@ -12722,7 +12722,7 @@
         <v>0.01</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0257925934273931</v>
+        <v>0.0257906938632484</v>
       </c>
       <c r="H154" t="n">
         <v>0.44</v>
@@ -12961,7 +12961,7 @@
         <v>4.25</v>
       </c>
       <c r="G157" t="n">
-        <v>3.81029053908571</v>
+        <v>3.81008131841676</v>
       </c>
       <c r="H157" t="n">
         <v>10.2</v>
@@ -13042,7 +13042,7 @@
         <v>0.0075</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0075001123519317</v>
+        <v>0.0075032417567226</v>
       </c>
       <c r="H158" t="n">
         <v>0.018</v>
@@ -13123,7 +13123,7 @@
         <v>0.0075</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0075001123519317</v>
+        <v>0.0075032417567226</v>
       </c>
       <c r="H159" t="n">
         <v>0.018</v>
@@ -13204,7 +13204,7 @@
         <v>32</v>
       </c>
       <c r="G160" t="n">
-        <v>86.74102779678979</v>
+        <v>86.7418311812818</v>
       </c>
       <c r="H160" t="n">
         <v>1844</v>
@@ -13289,7 +13289,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="n">
-        <v>86.74102779678979</v>
+        <v>86.7418311812818</v>
       </c>
       <c r="H161" t="n">
         <v>1844</v>
@@ -13374,7 +13374,7 @@
         <v>32</v>
       </c>
       <c r="G162" t="n">
-        <v>86.74102779678979</v>
+        <v>86.7418311812818</v>
       </c>
       <c r="H162" t="n">
         <v>1844</v>
@@ -13459,7 +13459,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="n">
-        <v>86.74102779678979</v>
+        <v>86.7418311812818</v>
       </c>
       <c r="H163" t="n">
         <v>1844</v>
@@ -13618,27 +13618,27 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.00184</v>
+        <v>0.0019</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0033021335981798</v>
+        <v>0.0033969877681802</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I165" t="n">
-        <v>0.01462</v>
+        <v>0.01479</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00192</v>
+        <v>0.00195</v>
       </c>
       <c r="M165" t="n">
-        <v>0.00342</v>
+        <v>0.00358</v>
       </c>
       <c r="N165" t="n">
-        <v>0.00966</v>
+        <v>0.01012</v>
       </c>
       <c r="O165" t="n">
         <v>1849990</v>
@@ -13699,27 +13699,27 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.00184</v>
+        <v>0.0019</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0033021335981798</v>
+        <v>0.0033969877681802</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I166" t="n">
-        <v>0.01462</v>
+        <v>0.01479</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00192</v>
+        <v>0.00195</v>
       </c>
       <c r="M166" t="n">
-        <v>0.00342</v>
+        <v>0.00358</v>
       </c>
       <c r="N166" t="n">
-        <v>0.00966</v>
+        <v>0.01012</v>
       </c>
       <c r="O166" t="n">
         <v>1849990</v>
@@ -13783,7 +13783,7 @@
         <v>0.0655</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0920645249385635</v>
+        <v>0.0920870427379897</v>
       </c>
       <c r="H167" t="n">
         <v>0.7040999999999999</v>
@@ -13864,7 +13864,7 @@
         <v>0.0655</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0920645249385635</v>
+        <v>0.0920870427379897</v>
       </c>
       <c r="H168" t="n">
         <v>0.7040999999999999</v>
@@ -14018,13 +14018,13 @@
         <v>0.075</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09944459900169771</v>
+        <v>0.09942580103519651</v>
       </c>
       <c r="H170" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I170" t="n">
-        <v>0.2525</v>
+        <v>0.25245</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
         <v>0.02</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1561</v>
+        <v>0.15582</v>
       </c>
       <c r="N170" t="n">
         <v>0.202</v>
@@ -14095,13 +14095,13 @@
         <v>0.075</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09944459900169771</v>
+        <v>0.09942580103519651</v>
       </c>
       <c r="H171" t="n">
-        <v>0.722</v>
+        <v>0.7224</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2525</v>
+        <v>0.25245</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -14109,7 +14109,7 @@
         <v>0.02</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1561</v>
+        <v>0.15582</v>
       </c>
       <c r="N171" t="n">
         <v>0.202</v>
@@ -14723,7 +14723,7 @@
         <v>0.008</v>
       </c>
       <c r="G179" t="n">
-        <v>0.007833445685265001</v>
+        <v>0.007836575090055999</v>
       </c>
       <c r="H179" t="n">
         <v>0.013</v>
@@ -14804,7 +14804,7 @@
         <v>0.008</v>
       </c>
       <c r="G180" t="n">
-        <v>0.007833445685265001</v>
+        <v>0.007836575090055999</v>
       </c>
       <c r="H180" t="n">
         <v>0.013</v>
@@ -14885,7 +14885,7 @@
         <v>30</v>
       </c>
       <c r="G181" t="n">
-        <v>43.4988517486339</v>
+        <v>43.5004884616705</v>
       </c>
       <c r="H181" t="n">
         <v>210</v>
@@ -14970,7 +14970,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="n">
-        <v>43.4988517486339</v>
+        <v>43.5004884616705</v>
       </c>
       <c r="H182" t="n">
         <v>210</v>
@@ -15055,7 +15055,7 @@
         <v>30</v>
       </c>
       <c r="G183" t="n">
-        <v>43.4988517486339</v>
+        <v>43.5004884616705</v>
       </c>
       <c r="H183" t="n">
         <v>210</v>
@@ -15140,7 +15140,7 @@
         <v>30</v>
       </c>
       <c r="G184" t="n">
-        <v>43.4988517486339</v>
+        <v>43.5004884616705</v>
       </c>
       <c r="H184" t="n">
         <v>210</v>
@@ -15299,27 +15299,27 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.00216</v>
+        <v>0.00225</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0034334159228861</v>
+        <v>0.0035505137802105</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I186" t="n">
-        <v>0.01191</v>
+        <v>0.0124</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00213</v>
+        <v>0.00222</v>
       </c>
       <c r="M186" t="n">
-        <v>0.00443</v>
+        <v>0.00455</v>
       </c>
       <c r="N186" t="n">
-        <v>0.00574</v>
+        <v>0.00592</v>
       </c>
       <c r="O186" t="n">
         <v>1849990</v>
@@ -15380,27 +15380,27 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.00216</v>
+        <v>0.00225</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0034334159228861</v>
+        <v>0.0035505137802105</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I187" t="n">
-        <v>0.01191</v>
+        <v>0.0124</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.00213</v>
+        <v>0.00222</v>
       </c>
       <c r="M187" t="n">
-        <v>0.00443</v>
+        <v>0.00455</v>
       </c>
       <c r="N187" t="n">
-        <v>0.00574</v>
+        <v>0.00592</v>
       </c>
       <c r="O187" t="n">
         <v>1849990</v>
@@ -15464,7 +15464,7 @@
         <v>0.0655</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0881645249385635</v>
+        <v>0.0881870427379897</v>
       </c>
       <c r="H188" t="n">
         <v>0.365</v>
@@ -15545,7 +15545,7 @@
         <v>0.0655</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0881645249385635</v>
+        <v>0.0881870427379897</v>
       </c>
       <c r="H189" t="n">
         <v>0.365</v>
@@ -15699,7 +15699,7 @@
         <v>0.075</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09501126566836431</v>
+        <v>0.0949958010351965</v>
       </c>
       <c r="H191" t="n">
         <v>0.375</v>
@@ -15713,7 +15713,7 @@
         <v>0.03</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1473</v>
+        <v>0.14683</v>
       </c>
       <c r="N191" t="n">
         <v>0.195</v>
@@ -15776,7 +15776,7 @@
         <v>0.075</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09501126566836431</v>
+        <v>0.0949958010351965</v>
       </c>
       <c r="H192" t="n">
         <v>0.375</v>
@@ -15790,7 +15790,7 @@
         <v>0.03</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1473</v>
+        <v>0.14683</v>
       </c>
       <c r="N192" t="n">
         <v>0.195</v>
@@ -15853,7 +15853,7 @@
         <v>0.138</v>
       </c>
       <c r="G193" t="n">
-        <v>0.152921110867601</v>
+        <v>0.152935771533007</v>
       </c>
       <c r="H193" t="n">
         <v>0.43</v>
@@ -15930,7 +15930,7 @@
         <v>0.138</v>
       </c>
       <c r="G194" t="n">
-        <v>0.152921110867601</v>
+        <v>0.152935771533007</v>
       </c>
       <c r="H194" t="n">
         <v>0.43</v>
@@ -16323,13 +16323,13 @@
         <v>3.95</v>
       </c>
       <c r="G199" t="n">
-        <v>3.38584350072336</v>
+        <v>3.38187227082057</v>
       </c>
       <c r="H199" t="n">
         <v>10.2</v>
       </c>
       <c r="I199" t="n">
-        <v>8.039070000000001</v>
+        <v>7.88339</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -16404,7 +16404,7 @@
         <v>0.008</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0077336830758215</v>
+        <v>0.0077360074916473</v>
       </c>
       <c r="H200" t="n">
         <v>0.013</v>
@@ -16485,7 +16485,7 @@
         <v>0.008</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0077336830758215</v>
+        <v>0.0077360074916473</v>
       </c>
       <c r="H201" t="n">
         <v>0.013</v>
@@ -16566,7 +16566,7 @@
         <v>26.5</v>
       </c>
       <c r="G202" t="n">
-        <v>38.8190317422768</v>
+        <v>38.8211003968272</v>
       </c>
       <c r="H202" t="n">
         <v>210</v>
@@ -16651,7 +16651,7 @@
         <v>26.5</v>
       </c>
       <c r="G203" t="n">
-        <v>38.8190317422768</v>
+        <v>38.8211003968272</v>
       </c>
       <c r="H203" t="n">
         <v>210</v>
@@ -16736,7 +16736,7 @@
         <v>26.5</v>
       </c>
       <c r="G204" t="n">
-        <v>38.8190317422768</v>
+        <v>38.8211003968272</v>
       </c>
       <c r="H204" t="n">
         <v>210</v>
@@ -16821,7 +16821,7 @@
         <v>26.5</v>
       </c>
       <c r="G205" t="n">
-        <v>38.8190317422768</v>
+        <v>38.8211003968272</v>
       </c>
       <c r="H205" t="n">
         <v>210</v>
@@ -16980,27 +16980,27 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.00216</v>
+        <v>0.00225</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0032056538626644</v>
+        <v>0.0033219104230824</v>
       </c>
       <c r="H207" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I207" t="n">
-        <v>0.009509999999999999</v>
+        <v>0.00997</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00225</v>
+        <v>0.00235</v>
       </c>
       <c r="M207" t="n">
-        <v>0.00419</v>
+        <v>0.00431</v>
       </c>
       <c r="N207" t="n">
-        <v>0.00552</v>
+        <v>0.00567</v>
       </c>
       <c r="O207" t="n">
         <v>1849990</v>
@@ -17061,27 +17061,27 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.00216</v>
+        <v>0.00225</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0032056538626644</v>
+        <v>0.0033219104230824</v>
       </c>
       <c r="H208" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I208" t="n">
-        <v>0.009509999999999999</v>
+        <v>0.00997</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.00225</v>
+        <v>0.00235</v>
       </c>
       <c r="M208" t="n">
-        <v>0.00419</v>
+        <v>0.00431</v>
       </c>
       <c r="N208" t="n">
-        <v>0.00552</v>
+        <v>0.00567</v>
       </c>
       <c r="O208" t="n">
         <v>1849990</v>
@@ -17145,7 +17145,7 @@
         <v>0.068</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0909033522261968</v>
+        <v>0.09092278697624651</v>
       </c>
       <c r="H209" t="n">
         <v>0.365</v>
@@ -17226,7 +17226,7 @@
         <v>0.068</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0909033522261968</v>
+        <v>0.09092278697624651</v>
       </c>
       <c r="H210" t="n">
         <v>0.365</v>
@@ -17380,7 +17380,7 @@
         <v>0.075</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0975774798777008</v>
+        <v>0.09756550750674529</v>
       </c>
       <c r="H212" t="n">
         <v>0.375</v>
@@ -17457,7 +17457,7 @@
         <v>0.075</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0975774798777008</v>
+        <v>0.09756550750674529</v>
       </c>
       <c r="H213" t="n">
         <v>0.375</v>
@@ -17534,7 +17534,7 @@
         <v>0.13</v>
       </c>
       <c r="G214" t="n">
-        <v>0.151055366984001</v>
+        <v>0.151070276135261</v>
       </c>
       <c r="H214" t="n">
         <v>0.43</v>
@@ -17611,7 +17611,7 @@
         <v>0.13</v>
       </c>
       <c r="G215" t="n">
-        <v>0.151055366984001</v>
+        <v>0.151070276135261</v>
       </c>
       <c r="H215" t="n">
         <v>0.43</v>
@@ -18004,13 +18004,13 @@
         <v>1.8</v>
       </c>
       <c r="G220" t="n">
-        <v>2.97588941952457</v>
+        <v>2.91285485449947</v>
       </c>
       <c r="H220" t="n">
-        <v>12.8766820333432</v>
+        <v>9.63216983151877</v>
       </c>
       <c r="I220" t="n">
-        <v>8.145429999999999</v>
+        <v>7.97864</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -18085,7 +18085,7 @@
         <v>0.008</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0074387926897743</v>
+        <v>0.0074397637111323</v>
       </c>
       <c r="H221" t="n">
         <v>0.013</v>
@@ -18166,7 +18166,7 @@
         <v>0.008</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0074387926897743</v>
+        <v>0.0074397637111323</v>
       </c>
       <c r="H222" t="n">
         <v>0.013</v>
@@ -18247,7 +18247,7 @@
         <v>21</v>
       </c>
       <c r="G223" t="n">
-        <v>37.2119794820764</v>
+        <v>37.2143625430433</v>
       </c>
       <c r="H223" t="n">
         <v>210</v>
@@ -18332,7 +18332,7 @@
         <v>21</v>
       </c>
       <c r="G224" t="n">
-        <v>37.2119794820764</v>
+        <v>37.2143625430433</v>
       </c>
       <c r="H224" t="n">
         <v>210</v>
@@ -18417,7 +18417,7 @@
         <v>21</v>
       </c>
       <c r="G225" t="n">
-        <v>37.2119794820764</v>
+        <v>37.2143625430433</v>
       </c>
       <c r="H225" t="n">
         <v>210</v>
@@ -18502,7 +18502,7 @@
         <v>21</v>
       </c>
       <c r="G226" t="n">
-        <v>37.2119794820764</v>
+        <v>37.2143625430433</v>
       </c>
       <c r="H226" t="n">
         <v>210</v>
@@ -18661,27 +18661,27 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.00222</v>
+        <v>0.00226</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0033079149490976</v>
+        <v>0.0034005579552014</v>
       </c>
       <c r="H228" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I228" t="n">
-        <v>0.0108</v>
+        <v>0.01085</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.00238</v>
+        <v>0.00244</v>
       </c>
       <c r="M228" t="n">
-        <v>0.0045</v>
+        <v>0.00462</v>
       </c>
       <c r="N228" t="n">
-        <v>0.00711</v>
+        <v>0.00739</v>
       </c>
       <c r="O228" t="n">
         <v>1849990</v>
@@ -18742,27 +18742,27 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0.00222</v>
+        <v>0.00226</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0033079149490976</v>
+        <v>0.0034005579552014</v>
       </c>
       <c r="H229" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I229" t="n">
-        <v>0.0108</v>
+        <v>0.01085</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.00238</v>
+        <v>0.00244</v>
       </c>
       <c r="M229" t="n">
-        <v>0.0045</v>
+        <v>0.00462</v>
       </c>
       <c r="N229" t="n">
-        <v>0.00711</v>
+        <v>0.00739</v>
       </c>
       <c r="O229" t="n">
         <v>1849990</v>
@@ -18826,7 +18826,7 @@
         <v>0.073</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0946660640906036</v>
+        <v>0.0946854988406533</v>
       </c>
       <c r="H230" t="n">
         <v>0.365</v>
@@ -18907,7 +18907,7 @@
         <v>0.073</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0946660640906036</v>
+        <v>0.0946854988406533</v>
       </c>
       <c r="H231" t="n">
         <v>0.365</v>
@@ -19061,7 +19061,7 @@
         <v>0.083</v>
       </c>
       <c r="G233" t="n">
-        <v>0.101340191742108</v>
+        <v>0.101328219371152</v>
       </c>
       <c r="H233" t="n">
         <v>0.375</v>
@@ -19072,7 +19072,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.043</v>
+        <v>0.04275</v>
       </c>
       <c r="M233" t="n">
         <v>0.145</v>
@@ -19138,7 +19138,7 @@
         <v>0.083</v>
       </c>
       <c r="G234" t="n">
-        <v>0.101340191742108</v>
+        <v>0.101328219371152</v>
       </c>
       <c r="H234" t="n">
         <v>0.375</v>
@@ -19149,7 +19149,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>0.043</v>
+        <v>0.04275</v>
       </c>
       <c r="M234" t="n">
         <v>0.145</v>
@@ -19215,7 +19215,7 @@
         <v>0.14</v>
       </c>
       <c r="G235" t="n">
-        <v>0.151055366984001</v>
+        <v>0.151070276135261</v>
       </c>
       <c r="H235" t="n">
         <v>0.43</v>
@@ -19292,7 +19292,7 @@
         <v>0.14</v>
       </c>
       <c r="G236" t="n">
-        <v>0.151055366984001</v>
+        <v>0.151070276135261</v>
       </c>
       <c r="H236" t="n">
         <v>0.43</v>
@@ -19685,13 +19685,13 @@
         <v>1.95</v>
       </c>
       <c r="G241" t="n">
-        <v>2.91788941952457</v>
+        <v>2.85485485449947</v>
       </c>
       <c r="H241" t="n">
-        <v>12.8766820333432</v>
+        <v>9.63216983151877</v>
       </c>
       <c r="I241" t="n">
-        <v>8.145429999999999</v>
+        <v>7.97864</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -19766,7 +19766,7 @@
         <v>0.008</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0078835416957548</v>
+        <v>0.0078837842417207</v>
       </c>
       <c r="H242" t="n">
         <v>0.013</v>
@@ -19847,7 +19847,7 @@
         <v>0.008</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0078835416957548</v>
+        <v>0.0078837842417207</v>
       </c>
       <c r="H243" t="n">
         <v>0.013</v>
@@ -19928,7 +19928,7 @@
         <v>23</v>
       </c>
       <c r="G244" t="n">
-        <v>37.2769524577272</v>
+        <v>37.2788881680991</v>
       </c>
       <c r="H244" t="n">
         <v>210</v>
@@ -20013,7 +20013,7 @@
         <v>23</v>
       </c>
       <c r="G245" t="n">
-        <v>37.2769524577272</v>
+        <v>37.2788881680991</v>
       </c>
       <c r="H245" t="n">
         <v>210</v>
@@ -20098,7 +20098,7 @@
         <v>23</v>
       </c>
       <c r="G246" t="n">
-        <v>37.2769524577272</v>
+        <v>37.2788881680991</v>
       </c>
       <c r="H246" t="n">
         <v>210</v>
@@ -20183,7 +20183,7 @@
         <v>23</v>
       </c>
       <c r="G247" t="n">
-        <v>37.2769524577272</v>
+        <v>37.2788881680991</v>
       </c>
       <c r="H247" t="n">
         <v>210</v>
@@ -20342,13 +20342,13 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0.00229</v>
+        <v>0.00232</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0032755320635415</v>
+        <v>0.0033394359147701</v>
       </c>
       <c r="H249" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I249" t="n">
         <v>0.01043</v>
@@ -20359,10 +20359,10 @@
         <v>0.00227</v>
       </c>
       <c r="M249" t="n">
-        <v>0.0045</v>
+        <v>0.00462</v>
       </c>
       <c r="N249" t="n">
-        <v>0.00585</v>
+        <v>0.00597</v>
       </c>
       <c r="O249" t="n">
         <v>1849990</v>
@@ -20423,13 +20423,13 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0.00229</v>
+        <v>0.00232</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0032755320635415</v>
+        <v>0.0033394359147701</v>
       </c>
       <c r="H250" t="n">
-        <v>0.0285108847485033</v>
+        <v>0.0294142256844066</v>
       </c>
       <c r="I250" t="n">
         <v>0.01043</v>
@@ -20440,10 +20440,10 @@
         <v>0.00227</v>
       </c>
       <c r="M250" t="n">
-        <v>0.0045</v>
+        <v>0.00462</v>
       </c>
       <c r="N250" t="n">
-        <v>0.00585</v>
+        <v>0.00597</v>
       </c>
       <c r="O250" t="n">
         <v>1849990</v>
@@ -20507,7 +20507,7 @@
         <v>0.081</v>
       </c>
       <c r="G251" t="n">
-        <v>0.104815656595117</v>
+        <v>0.104822486636286</v>
       </c>
       <c r="H251" t="n">
         <v>0.365</v>
@@ -20588,7 +20588,7 @@
         <v>0.081</v>
       </c>
       <c r="G252" t="n">
-        <v>0.104815656595117</v>
+        <v>0.104822486636286</v>
       </c>
       <c r="H252" t="n">
         <v>0.365</v>
@@ -20742,7 +20742,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G254" t="n">
-        <v>0.111311785977669</v>
+        <v>0.111291811538749</v>
       </c>
       <c r="H254" t="n">
         <v>0.375</v>
@@ -20756,10 +20756,10 @@
         <v>0.065</v>
       </c>
       <c r="M254" t="n">
-        <v>0.18758</v>
+        <v>0.18732</v>
       </c>
       <c r="N254" t="n">
-        <v>0.24056</v>
+        <v>0.24017</v>
       </c>
       <c r="O254" t="n">
         <v>1849990</v>
@@ -20819,7 +20819,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G255" t="n">
-        <v>0.111311785977669</v>
+        <v>0.111291811538749</v>
       </c>
       <c r="H255" t="n">
         <v>0.375</v>
@@ -20833,10 +20833,10 @@
         <v>0.065</v>
       </c>
       <c r="M255" t="n">
-        <v>0.18758</v>
+        <v>0.18732</v>
       </c>
       <c r="N255" t="n">
-        <v>0.24056</v>
+        <v>0.24017</v>
       </c>
       <c r="O255" t="n">
         <v>1849990</v>
@@ -20896,7 +20896,7 @@
         <v>0.14</v>
       </c>
       <c r="G256" t="n">
-        <v>0.156818078848408</v>
+        <v>0.156832987999668</v>
       </c>
       <c r="H256" t="n">
         <v>0.43</v>
@@ -20973,7 +20973,7 @@
         <v>0.14</v>
       </c>
       <c r="G257" t="n">
-        <v>0.156818078848408</v>
+        <v>0.156832987999668</v>
       </c>
       <c r="H257" t="n">
         <v>0.43</v>
@@ -21178,6 +21178,1687 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.62905</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G261" t="n">
+        <v>4.80934923598941</v>
+      </c>
+      <c r="H261" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I261" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="M261" t="n">
+        <v>8.095000000000001</v>
+      </c>
+      <c r="N261" t="n">
+        <v>13</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G262" t="n">
+        <v>2.776608176421</v>
+      </c>
+      <c r="H262" t="n">
+        <v>9.63216983151877</v>
+      </c>
+      <c r="I262" t="n">
+        <v>7.9996</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="N262" t="n">
+        <v>7.726</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.0078837842417207</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.01255</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.0078837842417207</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.01255</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>21</v>
+      </c>
+      <c r="G265" t="n">
+        <v>35.0030260991335</v>
+      </c>
+      <c r="H265" t="n">
+        <v>190</v>
+      </c>
+      <c r="I265" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>44</v>
+      </c>
+      <c r="M265" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="N265" t="n">
+        <v>116.08</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>21</v>
+      </c>
+      <c r="G266" t="n">
+        <v>35.0030260991335</v>
+      </c>
+      <c r="H266" t="n">
+        <v>190</v>
+      </c>
+      <c r="I266" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>44</v>
+      </c>
+      <c r="M266" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="N266" t="n">
+        <v>116.08</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>21</v>
+      </c>
+      <c r="G267" t="n">
+        <v>35.0030260991335</v>
+      </c>
+      <c r="H267" t="n">
+        <v>190</v>
+      </c>
+      <c r="I267" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>44</v>
+      </c>
+      <c r="M267" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="N267" t="n">
+        <v>116.08</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>21</v>
+      </c>
+      <c r="G268" t="n">
+        <v>35.0030260991335</v>
+      </c>
+      <c r="H268" t="n">
+        <v>190</v>
+      </c>
+      <c r="I268" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>44</v>
+      </c>
+      <c r="M268" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="N268" t="n">
+        <v>116.08</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>125.56</v>
+      </c>
+      <c r="G269" t="n">
+        <v>124.37</v>
+      </c>
+      <c r="H269" t="n">
+        <v>142</v>
+      </c>
+      <c r="I269" t="n">
+        <v>142</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>126.28</v>
+      </c>
+      <c r="M269" t="n">
+        <v>136.75</v>
+      </c>
+      <c r="N269" t="n">
+        <v>142</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0026135522457348</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.0108954055066432</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.00202</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.00565</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0026135522457348</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.0108954055066432</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>0.00202</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.00565</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.099856384941371</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.2325</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.14247</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.20634</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.099856384941371</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.2325</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.14247</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.20634</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>7.465</v>
+      </c>
+      <c r="G274" t="n">
+        <v>7.1784</v>
+      </c>
+      <c r="H274" t="n">
+        <v>7.857</v>
+      </c>
+      <c r="I274" t="n">
+        <v>7.857</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>7.0375</v>
+      </c>
+      <c r="M274" t="n">
+        <v>7.79155</v>
+      </c>
+      <c r="N274" t="n">
+        <v>7.857</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.106122320013325</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.23982</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.14894</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.21746</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.106122320013325</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.23982</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.14894</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.21746</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.154629598169159</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.2347</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.154629598169159</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.2347</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P278" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0454915254237288</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.1574</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.03294</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.09746</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P279" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0454915254237288</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.1574</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.03294</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.09746</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="P280" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
+++ b/state_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
@@ -2810,24 +2810,24 @@
         <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.46628673324276</v>
+        <v>5.4713122717528</v>
       </c>
       <c r="H30" t="n">
         <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>12.2588</v>
+        <v>12.50697</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>6.67677</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>9.767390000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>11.945</v>
+        <v>11.88</v>
       </c>
       <c r="O30" t="n">
         <v>1849990</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.89093</v>
+        <v>4.7</v>
       </c>
       <c r="G40" t="n">
-        <v>5.22304565125591</v>
+        <v>5.18603684309304</v>
       </c>
       <c r="H40" t="n">
         <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>12.11502</v>
+        <v>12.22532</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3614,10 +3614,10 @@
         <v>6.2</v>
       </c>
       <c r="M40" t="n">
-        <v>9</v>
+        <v>9.18651</v>
       </c>
       <c r="N40" t="n">
-        <v>11.21168</v>
+        <v>10.28</v>
       </c>
       <c r="O40" t="n">
         <v>1849990</v>
@@ -4630,16 +4630,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.88185</v>
+        <v>4.8</v>
       </c>
       <c r="G53" t="n">
-        <v>5.10316825193864</v>
+        <v>5.07384051716807</v>
       </c>
       <c r="H53" t="n">
         <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>11.8625</v>
+        <v>11.7</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4647,10 +4647,10 @@
         <v>5.7</v>
       </c>
       <c r="M53" t="n">
-        <v>8.01835</v>
+        <v>8.948309999999999</v>
       </c>
       <c r="N53" t="n">
-        <v>10.28167</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
         <v>1849990</v>
@@ -6234,16 +6234,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.89093</v>
+        <v>4.875</v>
       </c>
       <c r="G73" t="n">
-        <v>5.2102398304632</v>
+        <v>5.18034810079319</v>
       </c>
       <c r="H73" t="n">
         <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>11.90833</v>
+        <v>11.8</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -6251,10 +6251,10 @@
         <v>5.9</v>
       </c>
       <c r="M73" t="n">
-        <v>8.024710000000001</v>
+        <v>8.965540000000001</v>
       </c>
       <c r="N73" t="n">
-        <v>10.36834</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1849990</v>
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.89093</v>
+        <v>4.875</v>
       </c>
       <c r="G94" t="n">
-        <v>4.7483790960016</v>
+        <v>4.71959446743048</v>
       </c>
       <c r="H94" t="n">
-        <v>12.2875505399208</v>
+        <v>12.5633003420986</v>
       </c>
       <c r="I94" t="n">
-        <v>9.76</v>
+        <v>9.70565</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="M94" t="n">
-        <v>6.55657</v>
+        <v>6.296</v>
       </c>
       <c r="N94" t="n">
-        <v>8.1747</v>
+        <v>9.010149999999999</v>
       </c>
       <c r="O94" t="n">
         <v>1849990</v>
@@ -9596,10 +9596,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="G115" t="n">
-        <v>4.54347810400579</v>
+        <v>4.51229288263921</v>
       </c>
       <c r="H115" t="n">
         <v>10.2</v>
@@ -16323,13 +16323,13 @@
         <v>3.95</v>
       </c>
       <c r="G199" t="n">
-        <v>3.38187227082057</v>
+        <v>3.40991619846898</v>
       </c>
       <c r="H199" t="n">
         <v>10.2</v>
       </c>
       <c r="I199" t="n">
-        <v>7.88339</v>
+        <v>8.23</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -18004,13 +18004,13 @@
         <v>1.8</v>
       </c>
       <c r="G220" t="n">
-        <v>2.91285485449947</v>
+        <v>2.94055324892501</v>
       </c>
       <c r="H220" t="n">
-        <v>9.63216983151877</v>
+        <v>9.585121576612989</v>
       </c>
       <c r="I220" t="n">
-        <v>7.97864</v>
+        <v>8.35</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -19685,13 +19685,13 @@
         <v>1.95</v>
       </c>
       <c r="G241" t="n">
-        <v>2.85485485449947</v>
+        <v>2.88255324892501</v>
       </c>
       <c r="H241" t="n">
-        <v>9.63216983151877</v>
+        <v>9.585121576612989</v>
       </c>
       <c r="I241" t="n">
-        <v>7.97864</v>
+        <v>8.35</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -21366,13 +21366,13 @@
         <v>1.8</v>
       </c>
       <c r="G262" t="n">
-        <v>2.776608176421</v>
+        <v>2.80647899393874</v>
       </c>
       <c r="H262" t="n">
-        <v>9.63216983151877</v>
+        <v>9.585121576612989</v>
       </c>
       <c r="I262" t="n">
-        <v>7.9996</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
